--- a/tests/5_predictions_PRIX_EXP_POMME_FUJI_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_FUJI_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,16 +467,24 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>45656</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.289999961853027</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.350000023841858</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
+        <v>45509</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
@@ -485,7 +493,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
+        <v>45516</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
@@ -494,7 +502,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
+        <v>45523</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
@@ -503,7 +511,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
+        <v>45530</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
@@ -512,7 +520,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
+        <v>45537</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
@@ -521,7 +529,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
+        <v>45544</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
@@ -530,7 +538,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
+        <v>45551</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
@@ -539,7 +547,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
+        <v>45558</v>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
@@ -548,7 +556,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45565</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
@@ -557,7 +565,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
@@ -566,73 +574,67 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>1.269999980926514</v>
-      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
         <v>1.269999980926514</v>
       </c>
-      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45593</v>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
         <v>1.269999980926514</v>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B16" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="n">
         <v>1.269999980926514</v>
       </c>
-      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>1.320000052452087</v>
-      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B17" t="inlineStr"/>
+        <v>45607</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.269999980926514</v>
+      </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
         <v>1.320000052452087</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.289999961853027</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45621</v>
+        <v>45614</v>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
         <v>1.320000052452087</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.289999961853027</v>
       </c>
       <c r="E18" t="n">
         <v>1.289999961853027</v>
@@ -640,13 +642,11 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B19" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="n">
         <v>1.320000052452087</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.289999961853027</v>
       </c>
       <c r="D19" t="n">
         <v>1.289999961853027</v>
@@ -657,10 +657,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45635</v>
+        <v>45628</v>
       </c>
       <c r="B20" t="n">
-        <v>1.289999961853027</v>
+        <v>1.320000052452087</v>
       </c>
       <c r="C20" t="n">
         <v>1.289999961853027</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45642</v>
+        <v>45635</v>
       </c>
       <c r="B21" t="n">
         <v>1.289999961853027</v>
@@ -686,12 +686,12 @@
         <v>1.289999961853027</v>
       </c>
       <c r="E21" t="n">
-        <v>1.269999980926514</v>
+        <v>1.289999961853027</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45649</v>
+        <v>45642</v>
       </c>
       <c r="B22" t="n">
         <v>1.289999961853027</v>
@@ -700,50 +700,101 @@
         <v>1.289999961853027</v>
       </c>
       <c r="D22" t="n">
+        <v>1.289999961853027</v>
+      </c>
+      <c r="E22" t="n">
         <v>1.269999980926514</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.259999990463257</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45663</v>
+        <v>45649</v>
       </c>
       <c r="B23" t="n">
         <v>1.289999961853027</v>
       </c>
       <c r="C23" t="n">
+        <v>1.289999961853027</v>
+      </c>
+      <c r="D23" t="n">
         <v>1.269999980926514</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>1.259999990463257</v>
       </c>
-      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45670</v>
+        <v>45663</v>
       </c>
       <c r="B24" t="n">
+        <v>1.289999961853027</v>
+      </c>
+      <c r="C24" t="n">
         <v>1.269999980926514</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>1.259999990463257</v>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>1.289999961853027</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.269999980926514</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.259999990463257</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.289999961853027</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.269999980926514</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>45677</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B26" t="n">
         <v>1.259999990463257</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>1.289999961853027</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.269999980926514</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.289999961853027</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.269999980926514</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.269999980926514</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -756,7 +807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,338 +839,380 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
+        <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.169070482254028</v>
+        <v>1.290759801864624</v>
       </c>
       <c r="C2" t="n">
-        <v>1.292375802993774</v>
+        <v>1.258797287940979</v>
       </c>
       <c r="D2" t="n">
-        <v>1.287851572036743</v>
+        <v>1.257773399353027</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
+        <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>1.167377233505249</v>
+        <v>1.301217555999756</v>
       </c>
       <c r="C3" t="n">
-        <v>1.291837334632874</v>
+        <v>1.195100069046021</v>
       </c>
       <c r="D3" t="n">
-        <v>1.275211811065674</v>
+        <v>1.251392126083374</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
+        <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>1.189433336257935</v>
+        <v>1.309678077697754</v>
       </c>
       <c r="C4" t="n">
-        <v>1.291837334632874</v>
+        <v>1.188454270362854</v>
       </c>
       <c r="D4" t="n">
-        <v>1.274934530258179</v>
+        <v>1.234445571899414</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
+        <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>1.243761777877808</v>
+        <v>1.327046871185303</v>
       </c>
       <c r="C5" t="n">
-        <v>1.302952885627747</v>
+        <v>1.157392263412476</v>
       </c>
       <c r="D5" t="n">
-        <v>1.283669233322144</v>
+        <v>1.231268882751465</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
+        <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>1.231071472167969</v>
+        <v>1.327046871185303</v>
       </c>
       <c r="C6" t="n">
-        <v>1.306288599967957</v>
+        <v>1.157392263412476</v>
       </c>
       <c r="D6" t="n">
-        <v>1.284630060195923</v>
+        <v>1.231268882751465</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
+        <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>1.229797840118408</v>
+        <v>1.311208248138428</v>
       </c>
       <c r="C7" t="n">
-        <v>1.304630994796753</v>
+        <v>1.159249782562256</v>
       </c>
       <c r="D7" t="n">
-        <v>1.294549822807312</v>
+        <v>1.218984842300415</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
+        <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>1.306857109069824</v>
+        <v>1.309678077697754</v>
       </c>
       <c r="C8" t="n">
-        <v>1.287116885185242</v>
+        <v>1.157257080078125</v>
       </c>
       <c r="D8" t="n">
-        <v>1.297390937805176</v>
+        <v>1.232030153274536</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
+        <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>1.227506637573242</v>
+        <v>1.309343099594116</v>
       </c>
       <c r="C9" t="n">
-        <v>1.287320613861084</v>
+        <v>1.161089181900024</v>
       </c>
       <c r="D9" t="n">
-        <v>1.29793381690979</v>
+        <v>1.242818593978882</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
+        <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.197484970092773</v>
+        <v>1.308106899261475</v>
       </c>
       <c r="C10" t="n">
-        <v>1.305008888244629</v>
+        <v>1.159692525863647</v>
       </c>
       <c r="D10" t="n">
-        <v>1.32901394367218</v>
+        <v>1.243027687072754</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>1.297054290771484</v>
+        <v>1.310108661651611</v>
       </c>
       <c r="C11" t="n">
-        <v>1.302149653434753</v>
+        <v>1.158739686012268</v>
       </c>
       <c r="D11" t="n">
-        <v>1.34069550037384</v>
+        <v>1.242523908615112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.312761545181274</v>
+        <v>1.307531833648682</v>
       </c>
       <c r="C12" t="n">
-        <v>1.295430421829224</v>
+        <v>1.324991941452026</v>
       </c>
       <c r="D12" t="n">
-        <v>1.334686398506165</v>
+        <v>1.285166263580322</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.210062026977539</v>
+        <v>1.327370047569275</v>
       </c>
       <c r="C13" t="n">
-        <v>1.29278564453125</v>
+        <v>1.329999208450317</v>
       </c>
       <c r="D13" t="n">
-        <v>1.327027559280396</v>
+        <v>1.283780813217163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.263046503067017</v>
+        <v>1.272570252418518</v>
       </c>
       <c r="C14" t="n">
-        <v>1.334544062614441</v>
+        <v>1.322278618812561</v>
       </c>
       <c r="D14" t="n">
-        <v>1.378624320030212</v>
+        <v>1.286673069000244</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45593</v>
       </c>
       <c r="B15" t="n">
-        <v>1.2446608543396</v>
+        <v>1.299718499183655</v>
       </c>
       <c r="C15" t="n">
-        <v>1.338230490684509</v>
+        <v>1.308442115783691</v>
       </c>
       <c r="D15" t="n">
-        <v>1.372639536857605</v>
+        <v>1.299031972885132</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45607</v>
+        <v>45600</v>
       </c>
       <c r="B16" t="n">
-        <v>1.289676666259766</v>
+        <v>1.320067524909973</v>
       </c>
       <c r="C16" t="n">
-        <v>1.279576182365417</v>
+        <v>1.311917185783386</v>
       </c>
       <c r="D16" t="n">
-        <v>1.289507269859314</v>
+        <v>1.314372777938843</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45614</v>
+        <v>45607</v>
       </c>
       <c r="B17" t="n">
-        <v>1.32247519493103</v>
+        <v>1.267197370529175</v>
       </c>
       <c r="C17" t="n">
-        <v>1.287901759147644</v>
+        <v>1.33491039276123</v>
       </c>
       <c r="D17" t="n">
-        <v>1.329884648323059</v>
+        <v>1.28216552734375</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45621</v>
+        <v>45614</v>
       </c>
       <c r="B18" t="n">
-        <v>1.309422016143799</v>
+        <v>1.237443447113037</v>
       </c>
       <c r="C18" t="n">
-        <v>1.298095941543579</v>
+        <v>1.360390067100525</v>
       </c>
       <c r="D18" t="n">
-        <v>1.325387239456177</v>
+        <v>1.272099494934082</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45628</v>
+        <v>45621</v>
       </c>
       <c r="B19" t="n">
-        <v>1.373085260391235</v>
+        <v>1.246334195137024</v>
       </c>
       <c r="C19" t="n">
-        <v>1.300979733467102</v>
+        <v>1.351717591285706</v>
       </c>
       <c r="D19" t="n">
-        <v>1.310861468315125</v>
+        <v>1.290661573410034</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45635</v>
+        <v>45628</v>
       </c>
       <c r="B20" t="n">
-        <v>1.356417417526245</v>
+        <v>1.30988073348999</v>
       </c>
       <c r="C20" t="n">
-        <v>1.278484344482422</v>
+        <v>1.320572137832642</v>
       </c>
       <c r="D20" t="n">
-        <v>1.28285825252533</v>
+        <v>1.289419174194336</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45642</v>
+        <v>45635</v>
       </c>
       <c r="B21" t="n">
-        <v>1.356564044952393</v>
+        <v>1.297591805458069</v>
       </c>
       <c r="C21" t="n">
-        <v>1.268990278244019</v>
+        <v>1.315562844276428</v>
       </c>
       <c r="D21" t="n">
-        <v>1.263481616973877</v>
+        <v>1.257598400115967</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45649</v>
+        <v>45642</v>
       </c>
       <c r="B22" t="n">
-        <v>1.325623273849487</v>
+        <v>1.296370983123779</v>
       </c>
       <c r="C22" t="n">
-        <v>1.347314953804016</v>
+        <v>1.315264344215393</v>
       </c>
       <c r="D22" t="n">
-        <v>1.316992521286011</v>
+        <v>1.259782791137695</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45663</v>
+        <v>45649</v>
       </c>
       <c r="B23" t="n">
-        <v>1.350317001342773</v>
+        <v>1.262739539146423</v>
       </c>
       <c r="C23" t="n">
-        <v>1.296589374542236</v>
+        <v>1.254733085632324</v>
       </c>
       <c r="D23" t="n">
-        <v>1.336243748664856</v>
+        <v>1.250412702560425</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45670</v>
+        <v>45663</v>
       </c>
       <c r="B24" t="n">
-        <v>1.359544277191162</v>
+        <v>1.285855531692505</v>
       </c>
       <c r="C24" t="n">
-        <v>1.29058849811554</v>
+        <v>1.25613260269165</v>
       </c>
       <c r="D24" t="n">
-        <v>1.333274841308594</v>
+        <v>1.255972385406494</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.282685875892639</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.316900014877319</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.260550022125244</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>45677</v>
       </c>
-      <c r="B25" t="n">
-        <v>1.330962657928467</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.277561783790588</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.330275893211365</v>
+      <c r="B26" t="n">
+        <v>1.264962553977966</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.314808368682861</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.266628742218018</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.290990948677063</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.317901730537415</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.263931751251221</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.277133107185364</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.25895357131958</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.268523931503296</v>
       </c>
     </row>
   </sheetData>

--- a/tests/5_predictions_PRIX_EXP_POMME_FUJI_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_FUJI_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME FUJI FRANCE 170/220G CAT.I PLATEAU 1RG_S+1</t>
+          <t>PRIX EXP POMME FUJI FRANCE 170/220G CAT.I PLATEAU 1RG_S+1_class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME FUJI FRANCE 170/220G CAT.I PLATEAU 1RG_S+2</t>
+          <t>PRIX EXP POMME FUJI FRANCE 170/220G CAT.I PLATEAU 1RG_S+2_class</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME FUJI FRANCE 170/220G CAT.I PLATEAU 1RG_S+3</t>
+          <t>PRIX EXP POMME FUJI FRANCE 170/220G CAT.I PLATEAU 1RG_S+3_class</t>
         </is>
       </c>
     </row>
@@ -473,13 +473,13 @@
         <v>1.289999961853027</v>
       </c>
       <c r="C2" t="n">
-        <v>1.350000023841858</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.350000023841858</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1.350000023841858</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -487,109 +487,179 @@
         <v>45509</v>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>45516</v>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>45523</v>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>45530</v>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>45537</v>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>45544</v>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>45551</v>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
         <v>45558</v>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
         <v>45565</v>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
         <v>45572</v>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
         <v>45579</v>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
         <v>45586</v>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
       <c r="E14" t="n">
-        <v>1.269999980926514</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -597,11 +667,15 @@
         <v>45593</v>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
       <c r="D15" t="n">
-        <v>1.269999980926514</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -609,10 +683,14 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>1.269999980926514</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -621,10 +699,14 @@
       <c r="B17" t="n">
         <v>1.269999980926514</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
       <c r="E17" t="n">
-        <v>1.320000052452087</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -632,12 +714,14 @@
         <v>45614</v>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
       <c r="D18" t="n">
-        <v>1.320000052452087</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>1.289999961853027</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -646,13 +730,13 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>1.320000052452087</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>1.289999961853027</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1.289999961853027</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -663,13 +747,13 @@
         <v>1.320000052452087</v>
       </c>
       <c r="C20" t="n">
-        <v>1.289999961853027</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1.289999961853027</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>1.289999961853027</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -680,13 +764,13 @@
         <v>1.289999961853027</v>
       </c>
       <c r="C21" t="n">
-        <v>1.289999961853027</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>1.289999961853027</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>1.289999961853027</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -697,13 +781,13 @@
         <v>1.289999961853027</v>
       </c>
       <c r="C22" t="n">
-        <v>1.289999961853027</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>1.289999961853027</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>1.269999980926514</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -714,13 +798,13 @@
         <v>1.289999961853027</v>
       </c>
       <c r="C23" t="n">
-        <v>1.289999961853027</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>1.269999980926514</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1.259999990463257</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -731,13 +815,13 @@
         <v>1.289999961853027</v>
       </c>
       <c r="C24" t="n">
-        <v>1.269999980926514</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1.259999990463257</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>1.289999961853027</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -748,13 +832,13 @@
         <v>1.269999980926514</v>
       </c>
       <c r="C25" t="n">
-        <v>1.259999990463257</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>1.289999961853027</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>1.269999980926514</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -765,12 +849,14 @@
         <v>1.259999990463257</v>
       </c>
       <c r="C26" t="n">
-        <v>1.289999961853027</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>1.269999980926514</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -780,10 +866,14 @@
         <v>1.289999961853027</v>
       </c>
       <c r="C27" t="n">
-        <v>1.269999980926514</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -792,9 +882,15 @@
       <c r="B28" t="n">
         <v>1.269999980926514</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -842,13 +938,13 @@
         <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.290759801864624</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>1.258797287940979</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1.257773399353027</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -856,13 +952,13 @@
         <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>1.301217555999756</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.195100069046021</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.251392126083374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -870,13 +966,13 @@
         <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>1.309678077697754</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.188454270362854</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.234445571899414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -884,13 +980,13 @@
         <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>1.327046871185303</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.157392263412476</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.231268882751465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -898,13 +994,13 @@
         <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>1.327046871185303</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.157392263412476</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.231268882751465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -912,13 +1008,13 @@
         <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>1.311208248138428</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.159249782562256</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.218984842300415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -926,13 +1022,13 @@
         <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>1.309678077697754</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.157257080078125</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.232030153274536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -940,13 +1036,13 @@
         <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>1.309343099594116</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.161089181900024</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.242818593978882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -954,13 +1050,13 @@
         <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.308106899261475</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1.159692525863647</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.243027687072754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -968,13 +1064,13 @@
         <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>1.310108661651611</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.158739686012268</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.242523908615112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -982,13 +1078,13 @@
         <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.307531833648682</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.324991941452026</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.285166263580322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -996,13 +1092,13 @@
         <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.327370047569275</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.329999208450317</v>
+        <v>-2</v>
       </c>
       <c r="D13" t="n">
-        <v>1.283780813217163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1010,13 +1106,13 @@
         <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.272570252418518</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.322278618812561</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.286673069000244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1024,13 +1120,13 @@
         <v>45593</v>
       </c>
       <c r="B15" t="n">
-        <v>1.299718499183655</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.308442115783691</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.299031972885132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1038,13 +1134,13 @@
         <v>45600</v>
       </c>
       <c r="B16" t="n">
-        <v>1.320067524909973</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.311917185783386</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.314372777938843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1052,13 +1148,13 @@
         <v>45607</v>
       </c>
       <c r="B17" t="n">
-        <v>1.267197370529175</v>
+        <v>-2</v>
       </c>
       <c r="C17" t="n">
-        <v>1.33491039276123</v>
+        <v>-2</v>
       </c>
       <c r="D17" t="n">
-        <v>1.28216552734375</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1066,13 +1162,13 @@
         <v>45614</v>
       </c>
       <c r="B18" t="n">
-        <v>1.237443447113037</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>1.360390067100525</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.272099494934082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1080,13 +1176,13 @@
         <v>45621</v>
       </c>
       <c r="B19" t="n">
-        <v>1.246334195137024</v>
+        <v>-2</v>
       </c>
       <c r="C19" t="n">
-        <v>1.351717591285706</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.290661573410034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1094,13 +1190,13 @@
         <v>45628</v>
       </c>
       <c r="B20" t="n">
-        <v>1.30988073348999</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.320572137832642</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.289419174194336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1108,13 +1204,13 @@
         <v>45635</v>
       </c>
       <c r="B21" t="n">
-        <v>1.297591805458069</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.315562844276428</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.257598400115967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1122,13 +1218,13 @@
         <v>45642</v>
       </c>
       <c r="B22" t="n">
-        <v>1.296370983123779</v>
+        <v>-2</v>
       </c>
       <c r="C22" t="n">
-        <v>1.315264344215393</v>
+        <v>-1</v>
       </c>
       <c r="D22" t="n">
-        <v>1.259782791137695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1136,13 +1232,13 @@
         <v>45649</v>
       </c>
       <c r="B23" t="n">
-        <v>1.262739539146423</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>1.254733085632324</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>1.250412702560425</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1150,13 +1246,13 @@
         <v>45663</v>
       </c>
       <c r="B24" t="n">
-        <v>1.285855531692505</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>1.25613260269165</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>1.255972385406494</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1164,13 +1260,13 @@
         <v>45670</v>
       </c>
       <c r="B25" t="n">
-        <v>1.282685875892639</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.316900014877319</v>
+        <v>-2</v>
       </c>
       <c r="D25" t="n">
-        <v>1.260550022125244</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1178,13 +1274,13 @@
         <v>45677</v>
       </c>
       <c r="B26" t="n">
-        <v>1.264962553977966</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.314808368682861</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.266628742218018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1192,13 +1288,13 @@
         <v>45684</v>
       </c>
       <c r="B27" t="n">
-        <v>1.290990948677063</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.317901730537415</v>
+        <v>-2</v>
       </c>
       <c r="D27" t="n">
-        <v>1.263931751251221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1206,13 +1302,13 @@
         <v>45691</v>
       </c>
       <c r="B28" t="n">
-        <v>1.277133107185364</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.25895357131958</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.268523931503296</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
